--- a/src/main/resources/me/t3sl4/hesaplama/Hidrolik.xlsx
+++ b/src/main/resources/me/t3sl4/hesaplama/Hidrolik.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hesaplama\src\main\resources\me\t3sl4\hesaplama\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5243FA-7EED-4C60-95E8-F0E1F27E595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HidrolikData" sheetId="1" r:id="rId1"/>
+    <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId2"/>
+    <sheet name="Ünite Tipleri" sheetId="2" r:id="rId3"/>
+    <sheet name="Kampana" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +27,205 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+  <si>
+    <t>Ünite Tipleri</t>
+  </si>
+  <si>
+    <t>Hidros</t>
+  </si>
+  <si>
+    <t>Klasik</t>
+  </si>
+  <si>
+    <t>1.1 cc</t>
+  </si>
+  <si>
+    <t>Tümü</t>
+  </si>
+  <si>
+    <t>1.6 cc</t>
+  </si>
+  <si>
+    <t>2.1 cc</t>
+  </si>
+  <si>
+    <t>2.7 cc</t>
+  </si>
+  <si>
+    <t>3.2 cc</t>
+  </si>
+  <si>
+    <t>3.7 cc</t>
+  </si>
+  <si>
+    <t>4.2 cc</t>
+  </si>
+  <si>
+    <t>4.8 cc</t>
+  </si>
+  <si>
+    <t>5.8 cc</t>
+  </si>
+  <si>
+    <t>7 cc</t>
+  </si>
+  <si>
+    <t>8 cc</t>
+  </si>
+  <si>
+    <t>9 cc</t>
+  </si>
+  <si>
+    <t>9.5 cc</t>
+  </si>
+  <si>
+    <t>11.9 cc</t>
+  </si>
+  <si>
+    <t>14 cc</t>
+  </si>
+  <si>
+    <t>14.6 cc</t>
+  </si>
+  <si>
+    <t>16.8 cc</t>
+  </si>
+  <si>
+    <t>19.2 cc</t>
+  </si>
+  <si>
+    <t>22.9 cc</t>
+  </si>
+  <si>
+    <t>28.1 cc</t>
+  </si>
+  <si>
+    <t>28.8 cc</t>
+  </si>
+  <si>
+    <t>33.3 cc</t>
+  </si>
+  <si>
+    <t>37.9 cc</t>
+  </si>
+  <si>
+    <t>42.6 cc</t>
+  </si>
+  <si>
+    <t>45.5 cc</t>
+  </si>
+  <si>
+    <t>49.4 cc</t>
+  </si>
+  <si>
+    <t>56.1 cc</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>4 kW</t>
+  </si>
+  <si>
+    <t>5.5 kW</t>
+  </si>
+  <si>
+    <t>5.5 kW (Kompakt)</t>
+  </si>
+  <si>
+    <t>7.5 kW (Kompakt)</t>
+  </si>
+  <si>
+    <t>11 kW</t>
+  </si>
+  <si>
+    <t>11 kW (Kompakt)</t>
+  </si>
+  <si>
+    <t>15 kW</t>
+  </si>
+  <si>
+    <t>18.5 kW</t>
+  </si>
+  <si>
+    <t>22 kW</t>
+  </si>
+  <si>
+    <t>37 kW</t>
+  </si>
+  <si>
+    <t>Kampana Ölçü</t>
+  </si>
+  <si>
+    <t>250 mm</t>
+  </si>
+  <si>
+    <t>300 mm</t>
+  </si>
+  <si>
+    <t>350 mm</t>
+  </si>
+  <si>
+    <t>400 mm</t>
+  </si>
+  <si>
+    <t>kampanaBoslukX</t>
+  </si>
+  <si>
+    <t>kampanaBoslukY</t>
+  </si>
+  <si>
+    <t>valfBoslukX</t>
+  </si>
+  <si>
+    <t>valfBoslukYArka</t>
+  </si>
+  <si>
+    <t>valfBoslukYOn</t>
+  </si>
+  <si>
+    <t>kilitliBlokAraBoslukX</t>
+  </si>
+  <si>
+    <t>tekHizAraBoslukX</t>
+  </si>
+  <si>
+    <t>ciftHizAraBoslukX</t>
+  </si>
+  <si>
+    <t>kompanzasyonTekHizAraBoslukX</t>
+  </si>
+  <si>
+    <t>sogutmaAraBoslukX</t>
+  </si>
+  <si>
+    <t>sogutmaAraBoslukYkOn</t>
+  </si>
+  <si>
+    <t>sogutmaAraBoslukYkArka</t>
+  </si>
+  <si>
+    <t>kilitMotorKampanaBosluk</t>
+  </si>
+  <si>
+    <t>kilitMotorMotorBoslukX</t>
+  </si>
+  <si>
+    <t>kilitMotorBoslukYOn</t>
+  </si>
+  <si>
+    <t>kilitMotorBoslukYArka</t>
+  </si>
+  <si>
+    <t>kayipLitre</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +536,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A15982F-02B5-49BC-8D93-F591DF1E8850}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="11" max="11" width="25.26953125" customWidth="1"/>
+    <col min="12" max="12" width="26.36328125" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+    <col min="14" max="14" width="24.08984375" customWidth="1"/>
+    <col min="15" max="15" width="20.7265625" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>40</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D613C324-5BB6-4372-BB22-0D36D229F005}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76044273-A400-4462-B309-7C2D1EF96639}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>